--- a/Foundation/org.egovframe.rte.fdl.excel/testdata/template/template2.xlsx
+++ b/Foundation/org.egovframe.rte.fdl.excel/testdata/template/template2.xlsx
@@ -1,20 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EGOV2022/egovframe-runtime-4.1.0/Foundation/org.egovframe.rte.fdl.excel/testdata/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB79474-CB1D-7948-9ABE-A282A0058337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="780" windowWidth="17775" windowHeight="7605"/>
+    <workbookView xWindow="6280" yWindow="500" windowWidth="29560" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jung Jinho</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{35F5A085-6AC4-3B4B-958A-A7C710E45CF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>Jung Jinho:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>jx:area(lastCell="J4")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{4CF00258-CB95-BB4C-9EFC-8B419606E150}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>Jung Jinho:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>jx:each(items="persons" var="persons" lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>J</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">3")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Weekly Timesheet</t>
   </si>
@@ -86,58 +218,14 @@
   </si>
   <si>
     <t>${persons.sun}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach var="persons" items="${persons}"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[C4+D4+E4+F4+G4+H4+I4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(C4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I4)]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -162,6 +250,36 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -252,6 +370,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -299,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +453,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,23 +697,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="3" max="9" width="6" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -572,7 +735,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="40" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -604,94 +767,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SUM(C3:I3)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+    <row r="4" spans="1:10" ht="35" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
+      <c r="C4" s="2">
+        <f>SUM(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:I4" si="0">SUM(D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>SUM(J3)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -702,5 +846,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>